--- a/基于蓝牙的单片机控制系统/基于蓝牙的单片机控制系统手机指令集.xlsx
+++ b/基于蓝牙的单片机控制系统/基于蓝牙的单片机控制系统手机指令集.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BF05EC-897F-4FCC-BDC6-72958616DF4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851EDB67-ED17-4477-968D-67EF2C210F18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>LED1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,59 @@
   </si>
   <si>
     <t>备注：没有特别区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error:001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error:002</t>
+  </si>
+  <si>
+    <t>error:003</t>
+  </si>
+  <si>
+    <t>error:004</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送格式不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件类未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体器件未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开/关指令不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +481,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,33 +659,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
